--- a/Code/Results/Cases/Case_5_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_91/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.589728390601181</v>
+        <v>1.413372394153043</v>
       </c>
       <c r="C2">
-        <v>0.4109208041803356</v>
+        <v>0.2014560155030836</v>
       </c>
       <c r="D2">
-        <v>0.05109774774334142</v>
+        <v>0.1185488847114016</v>
       </c>
       <c r="E2">
-        <v>0.04520297858442035</v>
+        <v>0.1291941946857791</v>
       </c>
       <c r="F2">
-        <v>0.8086268239293659</v>
+        <v>1.803637194831531</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07254523185369255</v>
+        <v>0.1737659992641696</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1823055806780758</v>
+        <v>0.2725791693644055</v>
       </c>
       <c r="M2">
-        <v>0.448689871319651</v>
+        <v>0.3230976196827768</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.128222155061508</v>
+        <v>4.72691074783711</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.2537528398463</v>
+        <v>1.314378415875581</v>
       </c>
       <c r="C3">
-        <v>0.3732989647292015</v>
+        <v>0.1887386274948994</v>
       </c>
       <c r="D3">
-        <v>0.0484421113994955</v>
+        <v>0.1182101425572206</v>
       </c>
       <c r="E3">
-        <v>0.04655302595216071</v>
+        <v>0.1301246217882173</v>
       </c>
       <c r="F3">
-        <v>0.7975666293070418</v>
+        <v>1.816263475189196</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07500818800616571</v>
+        <v>0.1750953665012949</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1652364408551676</v>
+        <v>0.2687900340464466</v>
       </c>
       <c r="M3">
-        <v>0.3923440623328034</v>
+        <v>0.3071849845766295</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.107866517624188</v>
+        <v>4.765067934788021</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.048070143142922</v>
+        <v>1.253802580273543</v>
       </c>
       <c r="C4">
-        <v>0.3502098650646275</v>
+        <v>0.1808928524788627</v>
       </c>
       <c r="D4">
-        <v>0.04684297251751701</v>
+        <v>0.1180283284262913</v>
       </c>
       <c r="E4">
-        <v>0.04742649135117905</v>
+        <v>0.1307297229449418</v>
       </c>
       <c r="F4">
-        <v>0.792615911027859</v>
+        <v>1.82502869416156</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07659006999649165</v>
+        <v>0.1759581931710317</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1548681308966948</v>
+        <v>0.2665419847510435</v>
       </c>
       <c r="M4">
-        <v>0.3578919510471934</v>
+        <v>0.2974856371997419</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.100777326239211</v>
+        <v>4.791342454177823</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.964371722024282</v>
+        <v>1.229171044146767</v>
       </c>
       <c r="C5">
-        <v>0.3408005441968953</v>
+        <v>0.1776864758290913</v>
       </c>
       <c r="D5">
-        <v>0.04619887260487232</v>
+        <v>0.11796084946306</v>
       </c>
       <c r="E5">
-        <v>0.04779353301129685</v>
+        <v>0.1309848238460352</v>
       </c>
       <c r="F5">
-        <v>0.7910409442771993</v>
+        <v>1.82885520361792</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07725202608324366</v>
+        <v>0.1763215372721403</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1506690186914881</v>
+        <v>0.2656457351206072</v>
       </c>
       <c r="M5">
-        <v>0.3438828421658258</v>
+        <v>0.2935512272236451</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.099186604741618</v>
+        <v>4.802764799976615</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.950479899185723</v>
+        <v>1.225084281259626</v>
       </c>
       <c r="C6">
-        <v>0.3392380289396328</v>
+        <v>0.1771535123344705</v>
       </c>
       <c r="D6">
-        <v>0.04609236746468426</v>
+        <v>0.1179500448484134</v>
       </c>
       <c r="E6">
-        <v>0.04785514739657071</v>
+        <v>0.1310276979949418</v>
       </c>
       <c r="F6">
-        <v>0.7908055746501716</v>
+        <v>1.829505969844789</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07736298480015424</v>
+        <v>0.1763825796479548</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1499732725624412</v>
+        <v>0.2654981156287874</v>
       </c>
       <c r="M6">
-        <v>0.3415583110128679</v>
+        <v>0.2928990261310389</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.098999120728536</v>
+        <v>4.804704661930828</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04694091851519</v>
+        <v>1.253470171585775</v>
       </c>
       <c r="C7">
-        <v>0.3500829728679662</v>
+        <v>0.1808496469739822</v>
       </c>
       <c r="D7">
-        <v>0.04683425577770706</v>
+        <v>0.1180273915696048</v>
       </c>
       <c r="E7">
-        <v>0.04743139659968243</v>
+        <v>0.130733128819851</v>
       </c>
       <c r="F7">
-        <v>0.7925929048703892</v>
+        <v>1.825079268927425</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07659892744323304</v>
+        <v>0.175963045815049</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1548113974494569</v>
+        <v>0.2665298171014214</v>
       </c>
       <c r="M7">
-        <v>0.3577029037386694</v>
+        <v>0.2974325024971378</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.100750696548118</v>
+        <v>4.791493604314979</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473736750419278</v>
+        <v>1.379197253359166</v>
       </c>
       <c r="C8">
-        <v>0.3979446187566111</v>
+        <v>0.197078910243107</v>
       </c>
       <c r="D8">
-        <v>0.05017534707324955</v>
+        <v>0.1184266714328928</v>
       </c>
       <c r="E8">
-        <v>0.04565917123944763</v>
+        <v>0.1295079962000898</v>
       </c>
       <c r="F8">
-        <v>0.8044187907438385</v>
+        <v>1.80778054949274</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07337989939552525</v>
+        <v>0.1742147073576037</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1763955070440062</v>
+        <v>0.2712564483201874</v>
       </c>
       <c r="M8">
-        <v>0.4292281631696753</v>
+        <v>0.3175963537850492</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.120042493218904</v>
+        <v>4.739476478335888</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.317182538951897</v>
+        <v>1.627332369568535</v>
       </c>
       <c r="C9">
-        <v>0.4920413232185297</v>
+        <v>0.2286013970696388</v>
       </c>
       <c r="D9">
-        <v>0.05699353454203049</v>
+        <v>0.1194161389843558</v>
       </c>
       <c r="E9">
-        <v>0.04254180660770324</v>
+        <v>0.1273731662755377</v>
       </c>
       <c r="F9">
-        <v>0.8431811897119132</v>
+        <v>1.781894509591794</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06762822914818933</v>
+        <v>0.1711549734841622</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.219718416331304</v>
+        <v>0.2811439992483855</v>
       </c>
       <c r="M9">
-        <v>0.5709279586420521</v>
+        <v>0.357691433683371</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.203762953833831</v>
+        <v>4.660069162567083</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.943394118368758</v>
+        <v>1.810546480302321</v>
       </c>
       <c r="C10">
-        <v>0.5615593539400265</v>
+        <v>0.251568434234656</v>
       </c>
       <c r="D10">
-        <v>0.06219104828201694</v>
+        <v>0.1202675146617622</v>
       </c>
       <c r="E10">
-        <v>0.04047633193297795</v>
+        <v>0.1259669410027895</v>
       </c>
       <c r="F10">
-        <v>0.8825919672037088</v>
+        <v>1.767779362188676</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06375673110941094</v>
+        <v>0.1691304891479692</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2523166259726821</v>
+        <v>0.2887808919491732</v>
       </c>
       <c r="M10">
-        <v>0.6763594988692887</v>
+        <v>0.3874765644023555</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.297654397211289</v>
+        <v>4.615532086818888</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.230317192850009</v>
+        <v>1.894082098309525</v>
       </c>
       <c r="C11">
-        <v>0.5933272022791414</v>
+        <v>0.2619734516113681</v>
       </c>
       <c r="D11">
-        <v>0.06460268188624951</v>
+        <v>0.1206815454333423</v>
       </c>
       <c r="E11">
-        <v>0.03958707030733422</v>
+        <v>0.1253622411721116</v>
       </c>
       <c r="F11">
-        <v>0.9032398372684867</v>
+        <v>1.762423678517862</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06207538504680699</v>
+        <v>0.1682577555639195</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2673524109417116</v>
+        <v>0.2923350893888284</v>
       </c>
       <c r="M11">
-        <v>0.7247193968410244</v>
+        <v>0.4010956942395083</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.348457853886998</v>
+        <v>4.598274365031557</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.339318724754321</v>
+        <v>1.925740974398877</v>
       </c>
       <c r="C12">
-        <v>0.6053827514977854</v>
+        <v>0.2659072357292303</v>
       </c>
       <c r="D12">
-        <v>0.0655232611095542</v>
+        <v>0.1208421452283801</v>
       </c>
       <c r="E12">
-        <v>0.03925770943683116</v>
+        <v>0.1251382753191352</v>
       </c>
       <c r="F12">
-        <v>0.9114809213607913</v>
+        <v>1.760548882973495</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06145045846595032</v>
+        <v>0.1679341875448621</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2730792688728059</v>
+        <v>0.293692399584998</v>
       </c>
       <c r="M12">
-        <v>0.7430990075242434</v>
+        <v>0.4062626991946914</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.368955231759116</v>
+        <v>4.592171528068832</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.315826815551361</v>
+        <v>1.9189215499635</v>
       </c>
       <c r="C13">
-        <v>0.6027851420895445</v>
+        <v>0.2650603116481989</v>
       </c>
       <c r="D13">
-        <v>0.06532466193647224</v>
+        <v>0.1208073879651081</v>
       </c>
       <c r="E13">
-        <v>0.03932831241275991</v>
+        <v>0.125186287259158</v>
       </c>
       <c r="F13">
-        <v>0.9096867586194293</v>
+        <v>1.760945834938923</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06158451966681966</v>
+        <v>0.1680035663115085</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2718443567216156</v>
+        <v>0.2933995727195366</v>
       </c>
       <c r="M13">
-        <v>0.7391375011097452</v>
+        <v>0.405149463810524</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.364483147191692</v>
+        <v>4.593466648450402</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.239277473018717</v>
+        <v>1.896686186464819</v>
       </c>
       <c r="C14">
-        <v>0.5943184726976369</v>
+        <v>0.2622972152882141</v>
       </c>
       <c r="D14">
-        <v>0.06467826795445575</v>
+        <v>0.1206946817774082</v>
       </c>
       <c r="E14">
-        <v>0.03955982475528907</v>
+        <v>0.1253437148097114</v>
       </c>
       <c r="F14">
-        <v>0.9039091882901857</v>
+        <v>1.762266365391469</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06202373450906329</v>
+        <v>0.1682309968864768</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2678228784520229</v>
+        <v>0.2924465280186013</v>
       </c>
       <c r="M14">
-        <v>0.7262301034269285</v>
+        <v>0.4015205933759418</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.350118374359852</v>
+        <v>4.597763614164222</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.192436057943212</v>
+        <v>1.883069688813407</v>
       </c>
       <c r="C15">
-        <v>0.5891359057054899</v>
+        <v>0.2606039030640943</v>
       </c>
       <c r="D15">
-        <v>0.06428330674307148</v>
+        <v>0.120626141986989</v>
       </c>
       <c r="E15">
-        <v>0.03970259872811699</v>
+        <v>0.1254407972385168</v>
       </c>
       <c r="F15">
-        <v>0.900426204465532</v>
+        <v>1.763095193309482</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06229430696065386</v>
+        <v>0.1683712050420088</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2653640276121507</v>
+        <v>0.291864243623948</v>
       </c>
       <c r="M15">
-        <v>0.7183329385595911</v>
+        <v>0.3992990648018093</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.341486489349705</v>
+        <v>4.60045194246382</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.92468893872956</v>
+        <v>1.805090924551394</v>
       </c>
       <c r="C16">
-        <v>0.5594865674543428</v>
+        <v>0.250887562125456</v>
       </c>
       <c r="D16">
-        <v>0.06203443931813268</v>
+        <v>0.1202409922638097</v>
       </c>
       <c r="E16">
-        <v>0.04053547232895838</v>
+        <v>0.1260071628044033</v>
       </c>
       <c r="F16">
-        <v>0.8812999115808537</v>
+        <v>1.768150814089253</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06386824103939048</v>
+        <v>0.1691884931710028</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2513384466197834</v>
+        <v>0.2885502198542582</v>
       </c>
       <c r="M16">
-        <v>0.6732078765290765</v>
+        <v>0.3865879004091468</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.294505104266563</v>
+        <v>4.616720382366793</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.760998662339659</v>
+        <v>1.757301111757613</v>
       </c>
       <c r="C17">
-        <v>0.5413379555012909</v>
+        <v>0.2449157849360688</v>
       </c>
       <c r="D17">
-        <v>0.06066731336994025</v>
+        <v>0.1200115421764352</v>
       </c>
       <c r="E17">
-        <v>0.04105940551599341</v>
+        <v>0.1263635652952959</v>
       </c>
       <c r="F17">
-        <v>0.8702845144256344</v>
+        <v>1.771525202052516</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06485443793865464</v>
+        <v>0.169702210433357</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.242789488168512</v>
+        <v>0.286537619463104</v>
       </c>
       <c r="M17">
-        <v>0.6456336801521871</v>
+        <v>0.3788076636251247</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.267821767598207</v>
+        <v>4.627469921995441</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.667038383706426</v>
+        <v>1.729831713786552</v>
       </c>
       <c r="C18">
-        <v>0.5309125541475055</v>
+        <v>0.2414769605222489</v>
       </c>
       <c r="D18">
-        <v>0.05988539132477655</v>
+        <v>0.1198820867817645</v>
       </c>
       <c r="E18">
-        <v>0.04136548641819981</v>
+        <v>0.1265718535737945</v>
       </c>
       <c r="F18">
-        <v>0.8642027436216324</v>
+        <v>1.773566333034509</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06542916684280797</v>
+        <v>0.1700022261271545</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2378915887489512</v>
+        <v>0.2853875743669079</v>
       </c>
       <c r="M18">
-        <v>0.6298106356464999</v>
+        <v>0.3743392572044684</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.253229704255773</v>
+        <v>4.633935342196111</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.635256104755626</v>
+        <v>1.720534196468975</v>
       </c>
       <c r="C19">
-        <v>0.5273848117658986</v>
+        <v>0.2403119504863014</v>
       </c>
       <c r="D19">
-        <v>0.05962138779927528</v>
+        <v>0.1198386888111429</v>
       </c>
       <c r="E19">
-        <v>0.04146992797124049</v>
+        <v>0.1266429426904505</v>
       </c>
       <c r="F19">
-        <v>0.8621862753758194</v>
+        <v>1.774274644115749</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06562503903150763</v>
+        <v>0.1701045863734443</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2362364483515051</v>
+        <v>0.2849994888654379</v>
       </c>
       <c r="M19">
-        <v>0.624459287335597</v>
+        <v>0.3728274705714512</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.248416044113185</v>
+        <v>4.63617293735183</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.778403724227132</v>
+        <v>1.762386564063149</v>
       </c>
       <c r="C20">
-        <v>0.5432685046274344</v>
+        <v>0.2455519080318709</v>
       </c>
       <c r="D20">
-        <v>0.06081238572794945</v>
+        <v>0.1200357071152212</v>
       </c>
       <c r="E20">
-        <v>0.04100314153855367</v>
+        <v>0.1263252847094813</v>
       </c>
       <c r="F20">
-        <v>0.8714306171641937</v>
+        <v>1.771155614253203</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06474867794379158</v>
+        <v>0.1696470546889923</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2436975247656363</v>
+        <v>0.2867510836796043</v>
       </c>
       <c r="M20">
-        <v>0.648565114976897</v>
+        <v>0.379635204217692</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.270583395344147</v>
+        <v>4.626296366330365</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.261751916653225</v>
+        <v>1.903216565994967</v>
       </c>
       <c r="C21">
-        <v>0.596804597025681</v>
+        <v>0.263108978252717</v>
       </c>
       <c r="D21">
-        <v>0.06486792555616461</v>
+        <v>0.1207276830020163</v>
       </c>
       <c r="E21">
-        <v>0.03949162238730919</v>
+        <v>0.1252973383525777</v>
       </c>
       <c r="F21">
-        <v>0.9055944829599127</v>
+        <v>1.76187433276877</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06189440484788022</v>
+        <v>0.1681640074071673</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2690031563503368</v>
+        <v>0.2927261514896458</v>
       </c>
       <c r="M21">
-        <v>0.7300194277411194</v>
+        <v>0.4025862186551876</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.354302682063462</v>
+        <v>4.59648975468491</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.579716429796179</v>
+        <v>1.995406447849746</v>
       </c>
       <c r="C22">
-        <v>0.6319463319721876</v>
+        <v>0.2745463104228918</v>
       </c>
       <c r="D22">
-        <v>0.06756156202860808</v>
+        <v>0.1212021544665021</v>
       </c>
       <c r="E22">
-        <v>0.03854686626103376</v>
+        <v>0.1246547758332732</v>
       </c>
       <c r="F22">
-        <v>0.9303995695738507</v>
+        <v>1.756701984709665</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06009768254125625</v>
+        <v>0.1672350620805645</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2857367557395207</v>
+        <v>0.2966976751340411</v>
       </c>
       <c r="M22">
-        <v>0.7836486593168033</v>
+        <v>0.4176426495161891</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.416407671636051</v>
+        <v>4.579529365649563</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.40980437633732</v>
+        <v>1.946189852775206</v>
       </c>
       <c r="C23">
-        <v>0.6131747470574567</v>
+        <v>0.2684454678093573</v>
       </c>
       <c r="D23">
-        <v>0.06611977928882595</v>
+        <v>0.1209468961146385</v>
       </c>
       <c r="E23">
-        <v>0.03904710550655155</v>
+        <v>0.1249950502021977</v>
       </c>
       <c r="F23">
-        <v>0.9169230629610468</v>
+        <v>1.759380779759624</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06105024013173121</v>
+        <v>0.1677271743508797</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2767866851660727</v>
+        <v>0.2945719524939676</v>
       </c>
       <c r="M23">
-        <v>0.7549863353779145</v>
+        <v>0.4096016639101663</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.382551317859566</v>
+        <v>4.58835068929946</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.770534440550136</v>
+        <v>1.760087413501708</v>
       </c>
       <c r="C24">
-        <v>0.5423956773411476</v>
+        <v>0.245264334116257</v>
       </c>
       <c r="D24">
-        <v>0.06074678591975413</v>
+        <v>0.1200247744872343</v>
       </c>
       <c r="E24">
-        <v>0.0410285633410914</v>
+        <v>0.1263425808089313</v>
       </c>
       <c r="F24">
-        <v>0.8709116842313023</v>
+        <v>1.77132238982297</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06479646791568427</v>
+        <v>0.1696719760439134</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2432869486901694</v>
+        <v>0.2866545546156658</v>
       </c>
       <c r="M24">
-        <v>0.6472397214009149</v>
+        <v>0.3792610589048806</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.269332539038004</v>
+        <v>4.626826041974454</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.088058773933938</v>
+        <v>1.560041525251336</v>
       </c>
       <c r="C25">
-        <v>0.4665365007952857</v>
+        <v>0.2201069874045629</v>
       </c>
       <c r="D25">
-        <v>0.05511797482996172</v>
+        <v>0.1191265085268682</v>
       </c>
       <c r="E25">
-        <v>0.04334615189736368</v>
+        <v>0.127922137170069</v>
       </c>
       <c r="F25">
-        <v>0.8308852820736092</v>
+        <v>1.788036576542098</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06912294827249532</v>
+        <v>0.1719433703702613</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2078757923937218</v>
+        <v>0.2784034066236813</v>
       </c>
       <c r="M25">
-        <v>0.53239620194406</v>
+        <v>0.3467864406364001</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.175765256128415</v>
+        <v>4.679128858749749</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_91/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.413372394153043</v>
+        <v>2.589728390601181</v>
       </c>
       <c r="C2">
-        <v>0.2014560155030836</v>
+        <v>0.4109208041801935</v>
       </c>
       <c r="D2">
-        <v>0.1185488847114016</v>
+        <v>0.05109774774341247</v>
       </c>
       <c r="E2">
-        <v>0.1291941946857791</v>
+        <v>0.04520297858436395</v>
       </c>
       <c r="F2">
-        <v>1.803637194831531</v>
+        <v>0.8086268239293659</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1737659992641696</v>
+        <v>0.07254523185371209</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2725791693644055</v>
+        <v>0.1823055806779692</v>
       </c>
       <c r="M2">
-        <v>0.3230976196827768</v>
+        <v>0.4486898713196439</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.72691074783711</v>
+        <v>2.128222155061479</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.314378415875581</v>
+        <v>2.253752839846243</v>
       </c>
       <c r="C3">
-        <v>0.1887386274948994</v>
+        <v>0.3732989647291447</v>
       </c>
       <c r="D3">
-        <v>0.1182101425572206</v>
+        <v>0.04844211139938182</v>
       </c>
       <c r="E3">
-        <v>0.1301246217882173</v>
+        <v>0.04655302595216115</v>
       </c>
       <c r="F3">
-        <v>1.816263475189196</v>
+        <v>0.7975666293070134</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1750953665012949</v>
+        <v>0.07500818800619147</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2687900340464466</v>
+        <v>0.1652364408551819</v>
       </c>
       <c r="M3">
-        <v>0.3071849845766295</v>
+        <v>0.3923440623327892</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.765067934788021</v>
+        <v>2.107866517624188</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.253802580273543</v>
+        <v>2.048070143142809</v>
       </c>
       <c r="C4">
-        <v>0.1808928524788627</v>
+        <v>0.3502098650648549</v>
       </c>
       <c r="D4">
-        <v>0.1180283284262913</v>
+        <v>0.04684297251758096</v>
       </c>
       <c r="E4">
-        <v>0.1307297229449418</v>
+        <v>0.04742649135120569</v>
       </c>
       <c r="F4">
-        <v>1.82502869416156</v>
+        <v>0.7926159110278661</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1759581931710317</v>
+        <v>0.07659006999636464</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2665419847510435</v>
+        <v>0.1548681308967872</v>
       </c>
       <c r="M4">
-        <v>0.2974856371997419</v>
+        <v>0.3578919510472005</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.791342454177823</v>
+        <v>2.100777326239267</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.229171044146767</v>
+        <v>1.964371722024509</v>
       </c>
       <c r="C5">
-        <v>0.1776864758290913</v>
+        <v>0.3408005441967816</v>
       </c>
       <c r="D5">
-        <v>0.11796084946306</v>
+        <v>0.04619887260499311</v>
       </c>
       <c r="E5">
-        <v>0.1309848238460352</v>
+        <v>0.04779353301132439</v>
       </c>
       <c r="F5">
-        <v>1.82885520361792</v>
+        <v>0.7910409442772135</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1763215372721403</v>
+        <v>0.07725202608329251</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2656457351206072</v>
+        <v>0.1506690186914383</v>
       </c>
       <c r="M5">
-        <v>0.2935512272236451</v>
+        <v>0.3438828421658329</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.802764799976615</v>
+        <v>2.099186604741647</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.225084281259626</v>
+        <v>1.950479899185893</v>
       </c>
       <c r="C6">
-        <v>0.1771535123344705</v>
+        <v>0.3392380289396186</v>
       </c>
       <c r="D6">
-        <v>0.1179500448484134</v>
+        <v>0.04609236746468781</v>
       </c>
       <c r="E6">
-        <v>0.1310276979949418</v>
+        <v>0.04785514739655516</v>
       </c>
       <c r="F6">
-        <v>1.829505969844789</v>
+        <v>0.7908055746501788</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1763825796479548</v>
+        <v>0.07736298480014359</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2654981156287874</v>
+        <v>0.1499732725624554</v>
       </c>
       <c r="M6">
-        <v>0.2928990261310389</v>
+        <v>0.3415583110128679</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.804704661930828</v>
+        <v>2.098999120728564</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.253470171585775</v>
+        <v>2.046940918515077</v>
       </c>
       <c r="C7">
-        <v>0.1808496469739822</v>
+        <v>0.3500829728681367</v>
       </c>
       <c r="D7">
-        <v>0.1180273915696048</v>
+        <v>0.04683425577787403</v>
       </c>
       <c r="E7">
-        <v>0.130733128819851</v>
+        <v>0.04743139659968865</v>
       </c>
       <c r="F7">
-        <v>1.825079268927425</v>
+        <v>0.7925929048704106</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.175963045815049</v>
+        <v>0.07659892744316732</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2665298171014214</v>
+        <v>0.1548113974494427</v>
       </c>
       <c r="M7">
-        <v>0.2974325024971378</v>
+        <v>0.3577029037386907</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.791493604314979</v>
+        <v>2.100750696548147</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.379197253359166</v>
+        <v>2.473736750419221</v>
       </c>
       <c r="C8">
-        <v>0.197078910243107</v>
+        <v>0.3979446187567817</v>
       </c>
       <c r="D8">
-        <v>0.1184266714328928</v>
+        <v>0.05017534707319271</v>
       </c>
       <c r="E8">
-        <v>0.1295079962000898</v>
+        <v>0.04565917123944629</v>
       </c>
       <c r="F8">
-        <v>1.80778054949274</v>
+        <v>0.8044187907438598</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1742147073576037</v>
+        <v>0.07337989939547107</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2712564483201874</v>
+        <v>0.1763955070440844</v>
       </c>
       <c r="M8">
-        <v>0.3175963537850492</v>
+        <v>0.4292281631696682</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.739476478335888</v>
+        <v>2.120042493218904</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.627332369568535</v>
+        <v>3.317182538951897</v>
       </c>
       <c r="C9">
-        <v>0.2286013970696388</v>
+        <v>0.4920413232185297</v>
       </c>
       <c r="D9">
-        <v>0.1194161389843558</v>
+        <v>0.05699353454203049</v>
       </c>
       <c r="E9">
-        <v>0.1273731662755377</v>
+        <v>0.04254180660770235</v>
       </c>
       <c r="F9">
-        <v>1.781894509591794</v>
+        <v>0.843181189711899</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1711549734841622</v>
+        <v>0.067628229148184</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2811439992483855</v>
+        <v>0.219718416331375</v>
       </c>
       <c r="M9">
-        <v>0.357691433683371</v>
+        <v>0.5709279586420664</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.660069162567083</v>
+        <v>2.203762953833774</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.810546480302321</v>
+        <v>3.943394118368701</v>
       </c>
       <c r="C10">
-        <v>0.251568434234656</v>
+        <v>0.5615593539394865</v>
       </c>
       <c r="D10">
-        <v>0.1202675146617622</v>
+        <v>0.0621910482819672</v>
       </c>
       <c r="E10">
-        <v>0.1259669410027895</v>
+        <v>0.04047633193297928</v>
       </c>
       <c r="F10">
-        <v>1.767779362188676</v>
+        <v>0.8825919672036946</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1691304891479692</v>
+        <v>0.06375673110948021</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2887808919491732</v>
+        <v>0.2523166259726821</v>
       </c>
       <c r="M10">
-        <v>0.3874765644023555</v>
+        <v>0.6763594988692816</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.615532086818888</v>
+        <v>2.297654397211375</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.894082098309525</v>
+        <v>4.230317192850066</v>
       </c>
       <c r="C11">
-        <v>0.2619734516113681</v>
+        <v>0.593327202278914</v>
       </c>
       <c r="D11">
-        <v>0.1206815454333423</v>
+        <v>0.06460268188624951</v>
       </c>
       <c r="E11">
-        <v>0.1253622411721116</v>
+        <v>0.03958707030733821</v>
       </c>
       <c r="F11">
-        <v>1.762423678517862</v>
+        <v>0.9032398372685151</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1682577555639195</v>
+        <v>0.06207538504681409</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2923350893888284</v>
+        <v>0.2673524109417826</v>
       </c>
       <c r="M11">
-        <v>0.4010956942395083</v>
+        <v>0.7247193968410244</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.598274365031557</v>
+        <v>2.348457853887027</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.925740974398877</v>
+        <v>4.339318724754264</v>
       </c>
       <c r="C12">
-        <v>0.2659072357292303</v>
+        <v>0.6053827514978138</v>
       </c>
       <c r="D12">
-        <v>0.1208421452283801</v>
+        <v>0.06552326110961815</v>
       </c>
       <c r="E12">
-        <v>0.1251382753191352</v>
+        <v>0.03925770943684803</v>
       </c>
       <c r="F12">
-        <v>1.760548882973495</v>
+        <v>0.9114809213608055</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1679341875448621</v>
+        <v>0.06145045846592367</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.293692399584998</v>
+        <v>0.273079268872749</v>
       </c>
       <c r="M12">
-        <v>0.4062626991946914</v>
+        <v>0.7430990075242505</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.592171528068832</v>
+        <v>2.368955231759145</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.9189215499635</v>
+        <v>4.315826815551532</v>
       </c>
       <c r="C13">
-        <v>0.2650603116481989</v>
+        <v>0.6027851420896297</v>
       </c>
       <c r="D13">
-        <v>0.1208073879651081</v>
+        <v>0.06532466193647934</v>
       </c>
       <c r="E13">
-        <v>0.125186287259158</v>
+        <v>0.0393283124127759</v>
       </c>
       <c r="F13">
-        <v>1.760945834938923</v>
+        <v>0.9096867586194151</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1680035663115085</v>
+        <v>0.0615845196667717</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2933995727195366</v>
+        <v>0.2718443567215445</v>
       </c>
       <c r="M13">
-        <v>0.405149463810524</v>
+        <v>0.7391375011097665</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.593466648450402</v>
+        <v>2.364483147191635</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.896686186464819</v>
+        <v>4.23927747301866</v>
       </c>
       <c r="C14">
-        <v>0.2622972152882141</v>
+        <v>0.5943184726974948</v>
       </c>
       <c r="D14">
-        <v>0.1206946817774082</v>
+        <v>0.06467826795457654</v>
       </c>
       <c r="E14">
-        <v>0.1253437148097114</v>
+        <v>0.03955982475531439</v>
       </c>
       <c r="F14">
-        <v>1.762266365391469</v>
+        <v>0.9039091882901715</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1682309968864768</v>
+        <v>0.06202373450913612</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2924465280186013</v>
+        <v>0.2678228784519803</v>
       </c>
       <c r="M14">
-        <v>0.4015205933759418</v>
+        <v>0.7262301034269356</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.597763614164222</v>
+        <v>2.350118374359852</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.883069688813407</v>
+        <v>4.192436057943155</v>
       </c>
       <c r="C15">
-        <v>0.2606039030640943</v>
+        <v>0.5891359057057173</v>
       </c>
       <c r="D15">
-        <v>0.120626141986989</v>
+        <v>0.06428330674295779</v>
       </c>
       <c r="E15">
-        <v>0.1254407972385168</v>
+        <v>0.03970259872811743</v>
       </c>
       <c r="F15">
-        <v>1.763095193309482</v>
+        <v>0.900426204465532</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1683712050420088</v>
+        <v>0.06229430696048155</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.291864243623948</v>
+        <v>0.2653640276122502</v>
       </c>
       <c r="M15">
-        <v>0.3992990648018093</v>
+        <v>0.7183329385595911</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.60045194246382</v>
+        <v>2.341486489349705</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.805090924551394</v>
+        <v>3.924688938729673</v>
       </c>
       <c r="C16">
-        <v>0.250887562125456</v>
+        <v>0.5594865674548259</v>
       </c>
       <c r="D16">
-        <v>0.1202409922638097</v>
+        <v>0.06203443931808295</v>
       </c>
       <c r="E16">
-        <v>0.1260071628044033</v>
+        <v>0.04053547232894594</v>
       </c>
       <c r="F16">
-        <v>1.768150814089253</v>
+        <v>0.8812999115808253</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1691884931710028</v>
+        <v>0.06386824103946509</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2885502198542582</v>
+        <v>0.2513384466197692</v>
       </c>
       <c r="M16">
-        <v>0.3865879004091468</v>
+        <v>0.6732078765290765</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.616720382366793</v>
+        <v>2.294505104266619</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.757301111757613</v>
+        <v>3.760998662339432</v>
       </c>
       <c r="C17">
-        <v>0.2449157849360688</v>
+        <v>0.5413379555013194</v>
       </c>
       <c r="D17">
-        <v>0.1200115421764352</v>
+        <v>0.06066731336995446</v>
       </c>
       <c r="E17">
-        <v>0.1263635652952959</v>
+        <v>0.04105940551599918</v>
       </c>
       <c r="F17">
-        <v>1.771525202052516</v>
+        <v>0.8702845144256344</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.169702210433357</v>
+        <v>0.06485443793861734</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.286537619463104</v>
+        <v>0.242789488168512</v>
       </c>
       <c r="M17">
-        <v>0.3788076636251247</v>
+        <v>0.6456336801521942</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.627469921995441</v>
+        <v>2.267821767598235</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.729831713786552</v>
+        <v>3.66703838370637</v>
       </c>
       <c r="C18">
-        <v>0.2414769605222489</v>
+        <v>0.5309125541474771</v>
       </c>
       <c r="D18">
-        <v>0.1198820867817645</v>
+        <v>0.05988539132459891</v>
       </c>
       <c r="E18">
-        <v>0.1265718535737945</v>
+        <v>0.0413654864181825</v>
       </c>
       <c r="F18">
-        <v>1.773566333034509</v>
+        <v>0.8642027436216324</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1700022261271545</v>
+        <v>0.06542916684278843</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2853875743669079</v>
+        <v>0.2378915887489796</v>
       </c>
       <c r="M18">
-        <v>0.3743392572044684</v>
+        <v>0.6298106356464785</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.633935342196111</v>
+        <v>2.253229704255858</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.720534196468975</v>
+        <v>3.63525610475557</v>
       </c>
       <c r="C19">
-        <v>0.2403119504863014</v>
+        <v>0.5273848117656144</v>
       </c>
       <c r="D19">
-        <v>0.1198386888111429</v>
+        <v>0.05962138779921844</v>
       </c>
       <c r="E19">
-        <v>0.1266429426904505</v>
+        <v>0.04146992797122362</v>
       </c>
       <c r="F19">
-        <v>1.774274644115749</v>
+        <v>0.8621862753758336</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1701045863734443</v>
+        <v>0.06562503903145256</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2849994888654379</v>
+        <v>0.236236448351562</v>
       </c>
       <c r="M19">
-        <v>0.3728274705714512</v>
+        <v>0.6244592873356112</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.63617293735183</v>
+        <v>2.248416044113185</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.762386564063149</v>
+        <v>3.778403724227189</v>
       </c>
       <c r="C20">
-        <v>0.2455519080318709</v>
+        <v>0.5432685046273207</v>
       </c>
       <c r="D20">
-        <v>0.1200357071152212</v>
+        <v>0.06081238572794234</v>
       </c>
       <c r="E20">
-        <v>0.1263252847094813</v>
+        <v>0.04100314153855278</v>
       </c>
       <c r="F20">
-        <v>1.771155614253203</v>
+        <v>0.8714306171642079</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1696470546889923</v>
+        <v>0.06474867794378625</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2867510836796043</v>
+        <v>0.2436975247656932</v>
       </c>
       <c r="M20">
-        <v>0.379635204217692</v>
+        <v>0.648565114976897</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.626296366330365</v>
+        <v>2.270583395344175</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.903216565994967</v>
+        <v>4.261751916653225</v>
       </c>
       <c r="C21">
-        <v>0.263108978252717</v>
+        <v>0.596804597025681</v>
       </c>
       <c r="D21">
-        <v>0.1207276830020163</v>
+        <v>0.06486792555609355</v>
       </c>
       <c r="E21">
-        <v>0.1252973383525777</v>
+        <v>0.03949162238729187</v>
       </c>
       <c r="F21">
-        <v>1.76187433276877</v>
+        <v>0.9055944829599127</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1681640074071673</v>
+        <v>0.06189440484790509</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2927261514896458</v>
+        <v>0.2690031563502941</v>
       </c>
       <c r="M21">
-        <v>0.4025862186551876</v>
+        <v>0.7300194277411336</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.59648975468491</v>
+        <v>2.354302682063462</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.995406447849746</v>
+        <v>4.579716429796235</v>
       </c>
       <c r="C22">
-        <v>0.2745463104228918</v>
+        <v>0.6319463319725571</v>
       </c>
       <c r="D22">
-        <v>0.1212021544665021</v>
+        <v>0.06756156202860808</v>
       </c>
       <c r="E22">
-        <v>0.1246547758332732</v>
+        <v>0.03854686626099868</v>
       </c>
       <c r="F22">
-        <v>1.756701984709665</v>
+        <v>0.9303995695738365</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1672350620805645</v>
+        <v>0.06009768254127579</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2966976751340411</v>
+        <v>0.2857367557395492</v>
       </c>
       <c r="M22">
-        <v>0.4176426495161891</v>
+        <v>0.7836486593168033</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.579529365649563</v>
+        <v>2.416407671636051</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.946189852775206</v>
+        <v>4.409804376337206</v>
       </c>
       <c r="C23">
-        <v>0.2684454678093573</v>
+        <v>0.6131747470574567</v>
       </c>
       <c r="D23">
-        <v>0.1209468961146385</v>
+        <v>0.06611977928878332</v>
       </c>
       <c r="E23">
-        <v>0.1249950502021977</v>
+        <v>0.03904710550655599</v>
       </c>
       <c r="F23">
-        <v>1.759380779759624</v>
+        <v>0.9169230629610325</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1677271743508797</v>
+        <v>0.06105024013172766</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2945719524939676</v>
+        <v>0.276786685166087</v>
       </c>
       <c r="M23">
-        <v>0.4096016639101663</v>
+        <v>0.7549863353779216</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.58835068929946</v>
+        <v>2.382551317859566</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.760087413501708</v>
+        <v>3.770534440550023</v>
       </c>
       <c r="C24">
-        <v>0.245264334116257</v>
+        <v>0.5423956773410339</v>
       </c>
       <c r="D24">
-        <v>0.1200247744872343</v>
+        <v>0.06074678591963334</v>
       </c>
       <c r="E24">
-        <v>0.1263425808089313</v>
+        <v>0.04102856334106475</v>
       </c>
       <c r="F24">
-        <v>1.77132238982297</v>
+        <v>0.8709116842313023</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1696719760439134</v>
+        <v>0.06479646791570381</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2866545546156658</v>
+        <v>0.2432869486901978</v>
       </c>
       <c r="M24">
-        <v>0.3792610589048806</v>
+        <v>0.647239721400922</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.626826041974454</v>
+        <v>2.269332539038032</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.560041525251336</v>
+        <v>3.088058773934051</v>
       </c>
       <c r="C25">
-        <v>0.2201069874045629</v>
+        <v>0.4665365007956552</v>
       </c>
       <c r="D25">
-        <v>0.1191265085268682</v>
+        <v>0.05511797482995462</v>
       </c>
       <c r="E25">
-        <v>0.127922137170069</v>
+        <v>0.04334615189739122</v>
       </c>
       <c r="F25">
-        <v>1.788036576542098</v>
+        <v>0.8308852820736377</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1719433703702613</v>
+        <v>0.06912294827245091</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2784034066236813</v>
+        <v>0.2078757923937644</v>
       </c>
       <c r="M25">
-        <v>0.3467864406364001</v>
+        <v>0.5323962019440458</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.679128858749749</v>
+        <v>2.175765256128329</v>
       </c>
     </row>
   </sheetData>
